--- a/xlsx/特克斯和凯科斯群岛_intext.xlsx
+++ b/xlsx/特克斯和凯科斯群岛_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>特克斯和凯科斯群岛</t>
   </si>
@@ -29,7 +29,7 @@
     <t>上帝保佑女王</t>
   </si>
   <si>
-    <t>政策_政策_美國_特克斯和凯科斯群岛</t>
+    <t>政策_政策_美国_特克斯和凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E6%B5%B7%E5%A4%96%E9%A2%86%E5%9C%B0</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%B6%AD%E7%99%BB%E8%A5%BF%E4%BA%9E%E8%90%8A%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>普羅維登西亞萊斯島</t>
+    <t>普罗维登西亚莱斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>高加索人種</t>
+    <t>高加索人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80%E5%85%92</t>
   </si>
   <si>
-    <t>混血兒</t>
+    <t>混血儿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indo-Caribbean</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC%E5%85%83</t>
   </si>
   <si>
-    <t>巴哈馬元</t>
+    <t>巴哈马元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%9C%E9%83%A8%E6%97%B6%E5%8C%BA</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E7%BA%AA%E5%B9%B4</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%83%B5%E5%8D%80%E7%B7%A8%E8%99%9F</t>
   </si>
   <si>
-    <t>英國郵區編號</t>
+    <t>英国邮区编号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>西印度群島</t>
+    <t>西印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>凱科斯群島</t>
+    <t>凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%8D%83%E7%B1%B3</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
@@ -299,9 +299,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E4%B8%9A</t>
   </si>
   <si>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國外交部</t>
+    <t>中华民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家教育研究院</t>
+    <t>国家教育研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%83%A8%E6%A8%99%E6%BA%96%E6%AA%A2%E9%A9%97%E5%B1%80</t>
   </si>
   <si>
-    <t>經濟部標準檢驗局</t>
+    <t>经济部标准检验局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -587,15 +584,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
   </si>
   <si>
@@ -605,25 +599,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -635,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -665,31 +659,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -713,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -779,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>克利珀頓島</t>
+    <t>克利珀顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%B1%AA</t>
@@ -809,9 +803,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B2%9B</t>
   </si>
   <si>
-    <t>圣巴泰勒米岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納群島</t>
+    <t>瓦利斯和富图纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -905,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E5%B8%82</t>
   </si>
   <si>
-    <t>特別市</t>
+    <t>特别市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -917,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B7%B4</t>
   </si>
   <si>
-    <t>薩巴</t>
+    <t>萨巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A5%88%E5%B0%94</t>
@@ -965,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1043,9 +1034,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1067,19 +1055,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
   </si>
   <si>
-    <t>南極洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>南極條約</t>
+    <t>南极条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>英國海外領土</t>
+    <t>英国海外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%9D%83%E5%B1%9E%E5%9C%B0</t>
@@ -1091,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1109,25 +1094,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2902,7 +2887,7 @@
         <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2928,10 +2913,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2957,10 +2942,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2986,10 +2971,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3015,10 +3000,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3044,10 +3029,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3073,10 +3058,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3102,10 +3087,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3131,10 +3116,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3160,10 +3145,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3189,10 +3174,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3218,10 +3203,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3247,10 +3232,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3276,10 +3261,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -3334,10 +3319,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3363,10 +3348,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3392,10 +3377,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3421,10 +3406,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3450,10 +3435,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3479,10 +3464,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3508,10 +3493,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3537,10 +3522,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3566,10 +3551,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3595,10 +3580,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3624,10 +3609,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3653,10 +3638,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3682,10 +3667,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3711,10 +3696,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3740,10 +3725,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3769,10 +3754,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3798,10 +3783,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3827,10 +3812,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3856,10 +3841,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3885,10 +3870,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3914,10 +3899,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3943,10 +3928,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3972,10 +3957,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4001,10 +3986,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4030,10 +4015,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4059,10 +4044,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4088,10 +4073,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4117,10 +4102,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4146,10 +4131,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4175,10 +4160,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4204,10 +4189,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4233,10 +4218,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4262,10 +4247,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4291,10 +4276,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4320,10 +4305,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4349,10 +4334,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4378,10 +4363,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4407,10 +4392,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4436,10 +4421,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4465,10 +4450,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4494,10 +4479,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4523,10 +4508,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4552,10 +4537,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4581,10 +4566,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4610,10 +4595,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4639,10 +4624,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4668,10 +4653,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4697,10 +4682,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4726,10 +4711,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4755,10 +4740,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4784,10 +4769,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4813,10 +4798,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4842,10 +4827,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4871,10 +4856,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4900,10 +4885,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4929,10 +4914,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4958,10 +4943,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4987,10 +4972,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5016,10 +5001,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5045,10 +5030,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5074,10 +5059,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -5103,10 +5088,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5132,10 +5117,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5161,10 +5146,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
@@ -5219,10 +5204,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5248,10 +5233,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F130" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5277,10 +5262,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5306,10 +5291,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5335,10 +5320,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5364,10 +5349,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5393,10 +5378,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5422,10 +5407,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5451,10 +5436,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5480,10 +5465,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5509,10 +5494,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5538,10 +5523,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5567,10 +5552,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5596,10 +5581,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5625,10 +5610,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5654,10 +5639,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5683,10 +5668,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5712,10 +5697,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5741,10 +5726,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5770,10 +5755,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5799,10 +5784,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5828,10 +5813,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5857,10 +5842,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5886,10 +5871,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5915,10 +5900,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5944,10 +5929,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F154" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -5973,10 +5958,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6002,10 +5987,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6031,10 +6016,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6060,10 +6045,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6089,10 +6074,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6118,10 +6103,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6147,10 +6132,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6176,10 +6161,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6205,10 +6190,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6234,10 +6219,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6263,10 +6248,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6292,10 +6277,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6321,10 +6306,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6350,10 +6335,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6379,10 +6364,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6408,10 +6393,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6437,10 +6422,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6466,10 +6451,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6495,10 +6480,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6553,10 +6538,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6582,10 +6567,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6611,10 +6596,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6640,10 +6625,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6669,10 +6654,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F179" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -6698,10 +6683,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6727,10 +6712,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6756,10 +6741,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6785,10 +6770,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -6814,10 +6799,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6843,10 +6828,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6872,10 +6857,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G186" t="n">
         <v>4</v>
@@ -6901,10 +6886,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -6930,10 +6915,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6959,10 +6944,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F189" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6988,10 +6973,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7017,10 +7002,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F191" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7046,10 +7031,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7075,10 +7060,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7104,10 +7089,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7133,10 +7118,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7162,10 +7147,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7191,10 +7176,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F197" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -7220,10 +7205,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F198" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7249,10 +7234,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
